--- a/data/Projected State Use -JUN25.xlsx
+++ b/data/Projected State Use -JUN25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\COM460\24MONTH\2025\06-JUN25\QAQC_SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868975D1-EF5B-42D5-9B5C-89E0FEE206D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76867991-15C9-4562-A473-745FFB6AB86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="810" firstSheet="3" activeTab="3" xr2:uid="{5728D596-1F66-46AA-95D1-D62637A5657E}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" tabRatio="810" firstSheet="5" activeTab="5" xr2:uid="{5728D596-1F66-46AA-95D1-D62637A5657E}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="31" r:id="rId1"/>
@@ -6107,8 +6107,8 @@
   </sheetPr>
   <dimension ref="A1:AS64"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="D33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15840,7 +15840,7 @@
   </sheetPr>
   <dimension ref="A1:AS65"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="E33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -17446,8 +17446,8 @@
   </sheetPr>
   <dimension ref="A1:AS65"/>
   <sheetViews>
-    <sheetView topLeftCell="F42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19043,7 +19043,7 @@
   </sheetPr>
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -25397,8 +25397,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -25412,12 +25412,12 @@
     <col min="7" max="16384" width="9.453125" style="425"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="426" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="427">
         <v>45814</v>
       </c>
@@ -25497,7 +25497,7 @@
         <v>2608987</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="424">
         <f>B7-2700000</f>
         <v>-157068</v>
@@ -25511,13 +25511,13 @@
         <v>-91013</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="424"/>
     </row>
-    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="424"/>
     </row>
-    <row r="11" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="427"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -25683,7 +25683,7 @@
         <v>1148088</v>
       </c>
       <c r="D28" s="423">
-        <v>1108210</v>
+        <v>948088</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -25714,7 +25714,7 @@
       </c>
       <c r="D30" s="264">
         <f t="shared" si="5"/>
-        <v>2396287</v>
+        <v>2236165</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="D31" s="424">
         <f>D30-2700000</f>
-        <v>-303713</v>
+        <v>-463835</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.3">
